--- a/Emmanuel/data/cleaned/adj_matrix.xlsx
+++ b/Emmanuel/data/cleaned/adj_matrix.xlsx
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -610,34 +610,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>35</v>
-      </c>
       <c r="F4" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -659,34 +659,34 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -708,34 +708,34 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>35</v>
-      </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -757,25 +757,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -806,22 +806,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -953,25 +953,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>

--- a/Emmanuel/data/cleaned/adj_matrix.xlsx
+++ b/Emmanuel/data/cleaned/adj_matrix.xlsx
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -619,25 +619,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -659,34 +659,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -708,34 +708,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -757,34 +757,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -806,22 +806,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -904,22 +904,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -953,31 +953,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1149,22 +1149,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1173,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
